--- a/东奥会计专业/操作费/操作费月度明细表.xlsx
+++ b/东奥会计专业/操作费/操作费月度明细表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -85,11 +85,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -279,7 +279,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -314,7 +313,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -490,14 +488,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="4" max="9" width="12.75" customWidth="1"/>
@@ -506,12 +504,12 @@
     <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:21">
       <c r="G4" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
@@ -544,7 +542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
@@ -586,7 +584,7 @@
         <v>3437.3999999999996</v>
       </c>
     </row>
-    <row r="7" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3"/>
@@ -601,7 +599,7 @@
       <c r="S7" s="3"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
@@ -616,7 +614,7 @@
       <c r="S8" s="3"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
@@ -658,7 +656,7 @@
         <v>62.999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="3"/>
@@ -673,7 +671,7 @@
       <c r="S10" s="3"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
@@ -688,7 +686,7 @@
       <c r="S11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
@@ -702,7 +700,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <f>D12+E12+F12+G12+H12</f>
+        <v>188.52</v>
+      </c>
       <c r="M12" s="1">
         <v>183.35999999999999</v>
       </c>
@@ -720,7 +721,7 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="13" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
@@ -735,7 +736,7 @@
       <c r="S13" s="3"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="3"/>
@@ -750,7 +751,7 @@
       <c r="S14" s="3"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
@@ -790,7 +791,7 @@
         <v>29.400000000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:21" s="2" customFormat="1" ht="20.25" customHeight="1">
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
@@ -825,7 +826,7 @@
       </c>
       <c r="U16" s="5"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6">
       <c r="D18">
         <v>2385.9599999999987</v>
       </c>
@@ -836,7 +837,7 @@
         <v>2747.15999999941</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6">
       <c r="C19" t="s">
         <v>10</v>
       </c>
@@ -847,7 +848,7 @@
         <v>34.559999999999903</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6">
       <c r="D20">
         <f>D18-D19</f>
         <v>2365.7999999999988</v>
@@ -857,7 +858,7 @@
         <v>3539.0399999999991</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6">
       <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
@@ -876,21 +877,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B7:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:7">
       <c r="F8">
         <v>2067.12</v>
       </c>
@@ -898,17 +899,17 @@
         <v>2137.3199999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:7">
       <c r="F9">
         <v>70.2</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7">
       <c r="B10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:7">
       <c r="F11">
         <v>54.239999999999995</v>
       </c>
@@ -916,17 +917,17 @@
         <v>56.16</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7">
       <c r="F12">
         <v>1.92</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:7">
       <c r="B13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:7">
       <c r="F14">
         <v>174</v>
       </c>
@@ -934,17 +935,17 @@
         <v>181.8</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:7">
       <c r="F15">
         <v>7.8</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:7">
       <c r="B16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="F17">
         <v>4.5599999999999996</v>
       </c>
@@ -952,22 +953,22 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="F18">
         <v>1.08</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7">
       <c r="B19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="B20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -979,12 +980,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
